--- a/テストver2.xlsx
+++ b/テストver2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoda\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\di.blog\7_programming-practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85088CE7-D298-4433-883D-3C425FC19812}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{782CB307-88AB-4A7E-AD03-814D636A322A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{669E30C1-ED85-4AC1-B196-A4A3110210D3}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="43">
   <si>
     <t>単体テスト</t>
     <rPh sb="0" eb="2">
@@ -408,6 +408,120 @@
   </si>
   <si>
     <t>ok</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント登録画面からアカウント一覧画面に遷移</t>
+    <rPh sb="5" eb="9">
+      <t>トウロクガメン</t>
+    </rPh>
+    <rPh sb="16" eb="20">
+      <t>イチランガメン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント登録画面のナビゲーションバーの
+アカウント一覧画面を押す</t>
+    <rPh sb="5" eb="9">
+      <t>トウロクガメン</t>
+    </rPh>
+    <rPh sb="26" eb="30">
+      <t>イチランガメン</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント登録画面から
+アカウント一覧画面に遷移</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NG</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント登録確認画面から
+アカウント一覧画面に遷移</t>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント登録確認画面のナビゲーションバーの
+アカウント一覧画面を押す</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="28" eb="32">
+      <t>イチランガメン</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント登録完了画面から
+アカウント一覧画面に遷移</t>
+    <rPh sb="7" eb="9">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント登録完了画面のナビゲーションバーの
+アカウント一覧画面を押す</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="28" eb="32">
+      <t>イチランガメン</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント登録完了画面からアカウント一覧画面に遷移</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="18" eb="22">
+      <t>イチランガメン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>センイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -477,7 +591,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -494,6 +608,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -810,17 +927,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4958C42F-3AD4-4476-8D89-0C85A6D5B036}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="5.875" customWidth="1"/>
-    <col min="2" max="2" width="40.125" customWidth="1"/>
-    <col min="3" max="3" width="44.625" customWidth="1"/>
+    <col min="2" max="3" width="44.625" customWidth="1"/>
     <col min="4" max="4" width="35.875" customWidth="1"/>
     <col min="8" max="8" width="21.125" customWidth="1"/>
   </cols>
@@ -1271,6 +1387,87 @@
         <v>33</v>
       </c>
     </row>
+    <row r="22" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A22" s="3">
+        <v>4</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F22" s="5">
+        <v>44837</v>
+      </c>
+      <c r="G22" s="3"/>
+      <c r="H22" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A23" s="3">
+        <v>5</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F23" s="5">
+        <v>44837</v>
+      </c>
+      <c r="G23" s="3"/>
+      <c r="H23" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A24" s="3">
+        <v>6</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F24" s="5">
+        <v>44837</v>
+      </c>
+      <c r="G24" s="3"/>
+      <c r="H24" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/テストver2.xlsx
+++ b/テストver2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\di.blog\7_programming-practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{782CB307-88AB-4A7E-AD03-814D636A322A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{050800EF-602C-4DDC-A418-5C7158E3DD93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{669E30C1-ED85-4AC1-B196-A4A3110210D3}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="44">
   <si>
     <t>単体テスト</t>
     <rPh sb="0" eb="2">
@@ -521,6 +521,23 @@
     </rPh>
     <rPh sb="23" eb="25">
       <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>解決策：ナビゲーションバーに
+一覧画面を追加する</t>
+    <rPh sb="0" eb="3">
+      <t>カイケツサク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ツイカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -591,7 +608,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -608,9 +625,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -929,8 +943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4958C42F-3AD4-4476-8D89-0C85A6D5B036}">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -938,6 +952,7 @@
     <col min="1" max="1" width="5.875" customWidth="1"/>
     <col min="2" max="3" width="44.625" customWidth="1"/>
     <col min="4" max="4" width="35.875" customWidth="1"/>
+    <col min="7" max="7" width="39.25" customWidth="1"/>
     <col min="8" max="8" width="21.125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1400,17 +1415,19 @@
       <c r="D22" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="E22" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F22" s="5">
         <v>44837</v>
       </c>
-      <c r="G22" s="3"/>
-      <c r="H22" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="I22" s="6" t="s">
+      <c r="G22" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I22" s="3" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1427,17 +1444,19 @@
       <c r="D23" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="E23" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F23" s="5">
         <v>44837</v>
       </c>
-      <c r="G23" s="3"/>
-      <c r="H23" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="I23" s="6" t="s">
+      <c r="G23" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I23" s="3" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1454,17 +1473,19 @@
       <c r="D24" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="E24" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F24" s="5">
         <v>44837</v>
       </c>
-      <c r="G24" s="3"/>
-      <c r="H24" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="I24" s="6" t="s">
+      <c r="G24" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I24" s="3" t="s">
         <v>37</v>
       </c>
     </row>
